--- a/Bayern_2020-2021.xlsx
+++ b/Bayern_2020-2021.xlsx
@@ -1,55 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yovch\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F53CFF-8173-430A-A5CB-1E93C70BCD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E4A8B2-E974-46D2-8011-030976E94292}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58C199EC-4AFD-4C00-B4EE-F03577F3EC02}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{58C199EC-4AFD-4C00-B4EE-F03577F3EC02}"/>
   </bookViews>
   <sheets>
     <sheet name="Game Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Pivots" sheetId="3" r:id="rId2"/>
+    <sheet name="Bundesliga Stats" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Aerial_Duels_Won">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Bundesliga Stats'!$L$41:$L$41</definedName>
+    <definedName name="Aerial_Duels_Won">'Bundesliga Stats'!$J$6:$J$39</definedName>
+    <definedName name="Challenges" localSheetId="2">'Bundesliga Stats'!$I$6:$I$39</definedName>
     <definedName name="Challenges">'Game Stats'!$I$6:$I$55</definedName>
+    <definedName name="Competition" localSheetId="2">'Bundesliga Stats'!$C$6:$C$39</definedName>
     <definedName name="Competition">'Game Stats'!$C$6:$C$55</definedName>
-    <definedName name="Conrers">#REF!</definedName>
+    <definedName name="Conrers">'Bundesliga Stats'!$W$6:$W$39</definedName>
+    <definedName name="Crosses" localSheetId="2">'Bundesliga Stats'!#REF!</definedName>
     <definedName name="Crosses">'Game Stats'!$T$6:$T$55</definedName>
+    <definedName name="Crosses_Accuracy" localSheetId="2">'Bundesliga Stats'!#REF!</definedName>
     <definedName name="Crosses_Accuracy">'Game Stats'!$U$6:$U$55</definedName>
+    <definedName name="Crosses_Against" localSheetId="2">'Bundesliga Stats'!#REF!</definedName>
     <definedName name="Crosses_Against">'Game Stats'!$V$6:$V$55</definedName>
-    <definedName name="Distance">#REF!</definedName>
+    <definedName name="Distance">'Bundesliga Stats'!$U$6:$U$39</definedName>
+    <definedName name="Game_Date" localSheetId="2">'Bundesliga Stats'!$A$6:$A$39</definedName>
     <definedName name="Game_Date">'Game Stats'!$A$6:$A$55</definedName>
+    <definedName name="Goals_Against" localSheetId="2">'Bundesliga Stats'!$F$6:$F$39</definedName>
     <definedName name="Goals_Against">'Game Stats'!$F$6:$F$55</definedName>
+    <definedName name="Goals_for" localSheetId="2">'Bundesliga Stats'!$E$6:$E$39</definedName>
     <definedName name="Goals_for">'Game Stats'!$E$6:$E$55</definedName>
+    <definedName name="On_Target_Against" localSheetId="2">'Bundesliga Stats'!$P$6:$P$39</definedName>
     <definedName name="On_Target_Against">'Game Stats'!$M$6:$M$55</definedName>
-    <definedName name="Opp_Corners">#REF!</definedName>
-    <definedName name="Opp_Distance">#REF!</definedName>
+    <definedName name="Opp_Corners">'Bundesliga Stats'!$X$6:$X$39</definedName>
+    <definedName name="Opp_Distance">'Bundesliga Stats'!$V$6:$V$39</definedName>
+    <definedName name="Opp_Pass_Accuracy" localSheetId="2">'Bundesliga Stats'!$T$6:$T$39</definedName>
     <definedName name="Opp_Pass_Accuracy">'Game Stats'!$S$6:$S$55</definedName>
+    <definedName name="Opp_Total_Passes" localSheetId="2">'Bundesliga Stats'!$S$6:$S$39</definedName>
     <definedName name="Opp_Total_Passes">'Game Stats'!$R$6:$R$55</definedName>
+    <definedName name="Opponent" localSheetId="2">'Bundesliga Stats'!$D$6:$D$39</definedName>
     <definedName name="Opponent">'Game Stats'!$D$6:$D$55</definedName>
+    <definedName name="P_A_Opp_Half" localSheetId="2">'Bundesliga Stats'!#REF!</definedName>
     <definedName name="P_A_Opp_Half">'Game Stats'!$Q$6:$Q$55</definedName>
+    <definedName name="P_A_Own_Half" localSheetId="2">'Bundesliga Stats'!#REF!</definedName>
     <definedName name="P_A_Own_Half">'Game Stats'!$P$6:$P$55</definedName>
+    <definedName name="Pass_Accuracy" localSheetId="2">'Bundesliga Stats'!$R$6:$R$39</definedName>
     <definedName name="Pass_Accuracy">'Game Stats'!$O$6:$O$55</definedName>
+    <definedName name="Possesion" localSheetId="2">'Bundesliga Stats'!$H$6:$H$39</definedName>
     <definedName name="Possesion">'Game Stats'!$H$6:$H$55</definedName>
+    <definedName name="Result" localSheetId="2">'Bundesliga Stats'!$G$6:$G$39</definedName>
     <definedName name="Result">'Game Stats'!$G$6:$G$55</definedName>
+    <definedName name="Shots_on_Target" localSheetId="2">'Bundesliga Stats'!$N$6:$N$39</definedName>
     <definedName name="Shots_on_Target">'Game Stats'!$K$6:$K$55</definedName>
-    <definedName name="Tackles">#REF!</definedName>
-    <definedName name="Tackles_Won">#REF!</definedName>
+    <definedName name="Tackles">'Bundesliga Stats'!$K$6:$K$39</definedName>
+    <definedName name="Tackles_Won">'Bundesliga Stats'!$L$6:$L$39</definedName>
+    <definedName name="Total_Passes" localSheetId="2">'Bundesliga Stats'!$Q$6:$Q$39</definedName>
     <definedName name="Total_Passes">'Game Stats'!$N$6:$N$55</definedName>
+    <definedName name="Total_Shots" localSheetId="2">'Bundesliga Stats'!$M$6:$M$39</definedName>
     <definedName name="Total_Shots">'Game Stats'!$J$6:$J$55</definedName>
+    <definedName name="Total_Shots_Against" localSheetId="2">'Bundesliga Stats'!$O$6:$O$39</definedName>
     <definedName name="Total_Shots_Against">'Game Stats'!$L$6:$L$55</definedName>
+    <definedName name="Venue" localSheetId="2">'Bundesliga Stats'!$B$6:$B$39</definedName>
     <definedName name="Venue">'Game Stats'!$B$6:$B$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -103,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="97">
   <si>
     <t>Game Date</t>
   </si>
@@ -121,6 +145,9 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Possesion</t>
   </si>
   <si>
     <t>Total Shots</t>
@@ -312,14 +339,95 @@
     <t>(All)</t>
   </si>
   <si>
-    <t>Possession</t>
+    <t xml:space="preserve">Total Goals = </t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Opp Distance</t>
+  </si>
+  <si>
+    <t>Conrers</t>
+  </si>
+  <si>
+    <t>Opp Corners</t>
+  </si>
+  <si>
+    <t>Total Goals For:</t>
+  </si>
+  <si>
+    <t>Total Goals Opp:</t>
+  </si>
+  <si>
+    <t>Clean Sheets:</t>
+  </si>
+  <si>
+    <t>Tackles</t>
+  </si>
+  <si>
+    <t>Tackles Won</t>
+  </si>
+  <si>
+    <t>Median Challenges won:</t>
+  </si>
+  <si>
+    <t>Median Tackles Won:</t>
+  </si>
+  <si>
+    <t>Aerial Duels Won</t>
+  </si>
+  <si>
+    <t>Median Aerial Duels Won:</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Players name</t>
+  </si>
+  <si>
+    <t>Thomas Müller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Lewandowski </t>
+  </si>
+  <si>
+    <t>Jerome Boateng</t>
+  </si>
+  <si>
+    <t>Benjamin Pavard</t>
+  </si>
+  <si>
+    <t>Leon Goretzka</t>
+  </si>
+  <si>
+    <t>Player name</t>
+  </si>
+  <si>
+    <t>Duels Won</t>
+  </si>
+  <si>
+    <t>Alphonso Davies</t>
+  </si>
+  <si>
+    <t>Leroy Sane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Hernandez </t>
+  </si>
+  <si>
+    <t>Robert Lewandowski</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,8 +468,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,8 +495,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -441,11 +568,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -471,286 +669,94 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="94">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
+      <border outline="0">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="12"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="12"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -763,16 +769,74 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -785,13 +849,49 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <border>
@@ -2683,7 +2783,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Asen Yovchev" refreshedDate="44473.613096527777" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="50" xr:uid="{A57D5D9A-5CA1-42DF-AB3A-6EB351F3A34A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Asen Yovchev" refreshedDate="44343.234930324077" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="50" xr:uid="{A57D5D9A-5CA1-42DF-AB3A-6EB351F3A34A}">
   <cacheSource type="worksheet">
     <worksheetSource name="Games"/>
   </cacheSource>
@@ -4068,50 +4168,50 @@
     <dataField name="Total Games" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="21">
-    <format dxfId="61">
+    <format dxfId="46">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="44">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="42">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="40">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="38">
       <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="37">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="35">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="2">
@@ -4121,7 +4221,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="2">
@@ -4131,42 +4231,42 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
@@ -4306,7 +4406,7 @@
     <dataField name="Average of P A Opp Half" fld="16" subtotal="average" baseField="2" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="81">
+    <format dxfId="66">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4316,7 +4416,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="65">
       <pivotArea field="2" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisPage" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4325,7 +4425,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="64">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4334,7 +4434,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="63">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4344,7 +4444,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="62">
       <pivotArea field="2" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisPage" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4353,7 +4453,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="61">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -4363,48 +4463,48 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="59">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="57">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="56">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="54">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="52">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="50">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4">
@@ -4416,10 +4516,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="48">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
@@ -4517,32 +4617,89 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{448F4FD6-C7AF-4597-B656-814E65B92DFE}" name="Game Date" dataDxfId="93"/>
-    <tableColumn id="20" xr3:uid="{6151A45C-51C5-44C4-8658-7D80E5446A76}" name="Venue" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{448F4FD6-C7AF-4597-B656-814E65B92DFE}" name="Game Date" dataDxfId="78"/>
+    <tableColumn id="20" xr3:uid="{6151A45C-51C5-44C4-8658-7D80E5446A76}" name="Venue" dataDxfId="77"/>
     <tableColumn id="2" xr3:uid="{9996C808-CB80-4748-AAA2-35C14B63BDF1}" name="Competition"/>
     <tableColumn id="3" xr3:uid="{6B049F7E-B67A-4F95-8F6D-9291EEC5DE0A}" name="Opponent"/>
     <tableColumn id="4" xr3:uid="{C10865BB-F7EA-4844-A1CD-8BA4BBD260BE}" name="Goals for"/>
     <tableColumn id="5" xr3:uid="{FCB36CE8-A440-498A-A8A6-E51F39218901}" name="Goals Against"/>
-    <tableColumn id="6" xr3:uid="{4914CF26-0446-45F9-8218-3517663D0B51}" name="Result" dataDxfId="91">
+    <tableColumn id="6" xr3:uid="{4914CF26-0446-45F9-8218-3517663D0B51}" name="Result" dataDxfId="76">
       <calculatedColumnFormula>IF(Games[[#This Row],[Goals for]]&gt;Games[[#This Row],[Goals Against]],"Win",IF(Games[[#This Row],[Goals for]]=Games[[#This Row],[Goals Against]],"Draw",IF(Games[[#This Row],[Goals for]]&lt;Games[[#This Row],[Goals Against]],"Lose")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1E7EE069-318A-471F-AA6D-773D62659EEE}" name="Possession" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{4B3B9AA0-89C9-40A0-91E6-1A07891EE7E2}" name="Challenges" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{1E7EE069-318A-471F-AA6D-773D62659EEE}" name="Possesion" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{4B3B9AA0-89C9-40A0-91E6-1A07891EE7E2}" name="Challenges" dataDxfId="74"/>
     <tableColumn id="9" xr3:uid="{CBE7AD46-6339-4705-A6D8-5DF83C514E37}" name="Total Shots"/>
     <tableColumn id="23" xr3:uid="{64A627BA-6F50-4D72-B0E5-4485F8A2DE20}" name="Shots on Target"/>
     <tableColumn id="12" xr3:uid="{D310D605-9CCC-4584-9398-401FCBE00CA4}" name="Total Shots Against"/>
     <tableColumn id="13" xr3:uid="{1128CEA1-1E52-47B0-B9E8-9E3CB40CB44C}" name="On Target Against"/>
     <tableColumn id="14" xr3:uid="{E6B28CC1-895E-45CF-B328-2DEA9C6C251D}" name="Total Passes"/>
-    <tableColumn id="15" xr3:uid="{7D00EB40-9029-403F-8ED2-9E006E6CE516}" name="Pass Accuracy" dataDxfId="88"/>
-    <tableColumn id="24" xr3:uid="{1B4125E2-97AA-4A1A-A359-C75B1D2F6338}" name="P A Own Half" dataDxfId="87"/>
-    <tableColumn id="25" xr3:uid="{9F3D735A-DE6A-4553-9A28-136EA2BC33FC}" name="P A Opp Half" dataDxfId="86"/>
+    <tableColumn id="15" xr3:uid="{7D00EB40-9029-403F-8ED2-9E006E6CE516}" name="Pass Accuracy" dataDxfId="73"/>
+    <tableColumn id="24" xr3:uid="{1B4125E2-97AA-4A1A-A359-C75B1D2F6338}" name="P A Own Half" dataDxfId="72"/>
+    <tableColumn id="25" xr3:uid="{9F3D735A-DE6A-4553-9A28-136EA2BC33FC}" name="P A Opp Half" dataDxfId="71"/>
     <tableColumn id="22" xr3:uid="{8A90F3C0-291A-46AF-9FEA-09C9B8486A3C}" name="Opp Total Passes"/>
-    <tableColumn id="21" xr3:uid="{58CEF1E6-62EA-4C0A-BB24-713D6756B45D}" name="Opp Pass Accuracy" dataDxfId="85"/>
-    <tableColumn id="27" xr3:uid="{7AFB704B-249D-44E5-B7A4-C1BBBFE2C17D}" name="Crosses" dataDxfId="84"/>
-    <tableColumn id="26" xr3:uid="{F7CF3BFE-02B5-4C19-B527-1B6604703ABB}" name="Crosses Accuracy" dataDxfId="83"/>
-    <tableColumn id="17" xr3:uid="{5C508B7C-CFE1-40C6-BD58-9B831EA9FF36}" name="Crosses Against" dataDxfId="82"/>
+    <tableColumn id="21" xr3:uid="{58CEF1E6-62EA-4C0A-BB24-713D6756B45D}" name="Opp Pass Accuracy" dataDxfId="70"/>
+    <tableColumn id="27" xr3:uid="{7AFB704B-249D-44E5-B7A4-C1BBBFE2C17D}" name="Crosses" dataDxfId="69"/>
+    <tableColumn id="26" xr3:uid="{F7CF3BFE-02B5-4C19-B527-1B6604703ABB}" name="Crosses Accuracy" dataDxfId="68"/>
+    <tableColumn id="17" xr3:uid="{5C508B7C-CFE1-40C6-BD58-9B831EA9FF36}" name="Crosses Against" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C67D042-89AB-4BF3-90CC-890B45C155E0}" name="Games3" displayName="Games3" ref="A5:X39" totalsRowShown="0">
+  <autoFilter ref="A5:X39" xr:uid="{0FC09D6E-8A5A-46EA-8599-BB460B0BCA81}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{F79EF8F0-3B12-45C0-B8F0-5E3C47DD4455}" name="Game Date" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{40F41A10-FB97-4B98-863A-AB25BACC39B2}" name="Venue" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{EB5C527B-7696-429C-88D1-4B74679FD035}" name="Competition"/>
+    <tableColumn id="3" xr3:uid="{C4B2D2DF-95DD-44B2-A3C4-EF99A97E04A5}" name="Opponent"/>
+    <tableColumn id="4" xr3:uid="{B5B2FA4B-97CE-46AD-B043-C9AEFA95680C}" name="Goals for"/>
+    <tableColumn id="5" xr3:uid="{DBF77FC8-02E8-4C44-9F16-A239ACC12733}" name="Goals Against"/>
+    <tableColumn id="6" xr3:uid="{451F6285-C4C3-4925-BC0F-9900E7B790FF}" name="Result" dataDxfId="23">
+      <calculatedColumnFormula>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{89777F7C-6537-462D-A5B0-500322E8408C}" name="Possesion" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{041EF3D9-EA43-4365-9992-9806291C3E52}" name="Challenges" dataDxfId="15"/>
+    <tableColumn id="27" xr3:uid="{D1989401-EEF1-41B4-A475-410ED65E96FC}" name="Aerial Duels Won" dataDxfId="12"/>
+    <tableColumn id="24" xr3:uid="{1038AD04-9727-42A0-B447-D11712E0DEA0}" name="Tackles" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{F87BA3A3-0982-4ABF-AEF7-CC68E047AB46}" name="Tackles Won" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{FD038E76-2C38-4CF2-8A45-35796AF8C714}" name="Total Shots"/>
+    <tableColumn id="23" xr3:uid="{3AAC1EAA-0B55-410D-A744-6103C1662A6E}" name="Shots on Target"/>
+    <tableColumn id="12" xr3:uid="{911FB08A-689A-4BCD-B6DF-D28000A62297}" name="Total Shots Against"/>
+    <tableColumn id="13" xr3:uid="{A2730EC8-3671-49B0-B233-616A9E1E1C63}" name="On Target Against"/>
+    <tableColumn id="14" xr3:uid="{3BC7E58D-34C5-4F09-B4E0-4DD922278461}" name="Total Passes"/>
+    <tableColumn id="15" xr3:uid="{79957D0D-FA11-4CE8-AA04-CC04F094001E}" name="Pass Accuracy" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{18A9893E-0003-410A-AAB0-FB3A71DCD5D2}" name="Opp Total Passes"/>
+    <tableColumn id="21" xr3:uid="{669A56AA-820C-405E-BDF1-FA39914C119E}" name="Opp Pass Accuracy" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{4F9C64E5-3400-438B-B551-D90F2CC8F01C}" name="Distance" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{BBC4B965-8337-4596-986A-49126942AEC0}" name="Opp Distance" dataDxfId="18"/>
+    <tableColumn id="17" xr3:uid="{7580F047-9848-42CA-BFFD-4CF54DCF0D9E}" name="Conrers" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{1A426A92-159B-4E42-8169-3A5FDC60B62F}" name="Opp Corners" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{48845105-9ACC-4F9D-8469-3D730717DE75}" name="ADW" displayName="ADW" ref="AC4:AD9" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="AC4:AD9" xr:uid="{960A3652-B445-4232-89AC-088A74F77D57}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F45744A1-574D-40CF-9B8E-25A28137ABDB}" name="Players name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{99BFD8A3-A7D3-4AD5-88CD-F5B594F65D26}" name="Aerial Duels Won" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FAA5A0CC-88E6-4A23-B4E8-3E7AE892D16D}" name="DW" displayName="DW" ref="AC12:AD17" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="AC12:AD17" xr:uid="{02CB8FD8-CBF9-4907-8B26-B06038ACE6AA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D3D35661-19A3-4F71-9F69-60E150D86FB4}" name="Player name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{14BCAA8E-3BCC-4178-BF39-3BB7FC5C673C}" name="Duels Won" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4843,10 +5000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE39DCB-C4AE-493A-91AF-E7D25759E509}">
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4876,28 +5033,28 @@
     <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="T1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="T2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="T3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="T4"/>
       <c r="V4"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -4915,63 +5072,70 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" t="s">
-        <v>8</v>
-      </c>
       <c r="U5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="X5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5">
+        <f>SUMIF('Bundesliga Stats'!Competition,"Bundesliga",'Bundesliga Stats'!Goals_for)</f>
+        <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44092</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -5029,18 +5193,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44098</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -5098,18 +5262,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -5167,18 +5331,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -5236,18 +5400,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -5305,18 +5469,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44119</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -5374,18 +5538,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44121</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -5443,18 +5607,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44125</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -5512,18 +5676,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44128</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -5581,18 +5745,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44131</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -5650,18 +5814,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44135</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -5724,13 +5888,13 @@
         <v>44138</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -5793,13 +5957,13 @@
         <v>44142</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -5862,13 +6026,13 @@
         <v>44156</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5931,13 +6095,13 @@
         <v>44160</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -6000,13 +6164,13 @@
         <v>44163</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -6069,13 +6233,13 @@
         <v>44166</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -6138,13 +6302,13 @@
         <v>44170</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -6207,13 +6371,13 @@
         <v>44174</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -6276,13 +6440,13 @@
         <v>44177</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -6345,13 +6509,13 @@
         <v>44181</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -6414,13 +6578,13 @@
         <v>44184</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -6483,13 +6647,13 @@
         <v>44199</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -6552,13 +6716,13 @@
         <v>44204</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -6621,13 +6785,13 @@
         <v>44209</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -6690,13 +6854,13 @@
         <v>44213</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -6759,13 +6923,13 @@
         <v>44216</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -6828,13 +6992,13 @@
         <v>44220</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -6897,13 +7061,13 @@
         <v>44226</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -6966,13 +7130,13 @@
         <v>44232</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -7035,13 +7199,13 @@
         <v>44235</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -7104,13 +7268,13 @@
         <v>44238</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -7173,13 +7337,13 @@
         <v>44242</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -7242,13 +7406,13 @@
         <v>44247</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -7311,13 +7475,13 @@
         <v>44250</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -7380,13 +7544,13 @@
         <v>44254</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -7449,13 +7613,13 @@
         <v>44261</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -7518,13 +7682,13 @@
         <v>44268</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -7587,13 +7751,13 @@
         <v>44272</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -7656,13 +7820,13 @@
         <v>44275</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -7725,13 +7889,13 @@
         <v>44289</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -7794,13 +7958,13 @@
         <v>44293</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -7863,13 +8027,13 @@
         <v>44296</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -7932,13 +8096,13 @@
         <v>44299</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -8001,13 +8165,13 @@
         <v>44303</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -8070,13 +8234,13 @@
         <v>44306</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -8139,13 +8303,13 @@
         <v>44310</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -8208,13 +8372,13 @@
         <v>44324</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E53">
         <v>6</v>
@@ -8277,13 +8441,13 @@
         <v>44331</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -8346,13 +8510,13 @@
         <v>44338</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -8485,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8493,18 +8657,18 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="7">
         <v>606.04</v>
@@ -8512,7 +8676,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="8">
         <v>0.85691999999999979</v>
@@ -8520,7 +8684,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="8">
         <v>0.92714000000000008</v>
@@ -8528,7 +8692,7 @@
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="9">
         <v>0.75488</v>
@@ -8539,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -8547,20 +8711,20 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="14">
         <v>8</v>
@@ -8568,7 +8732,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="14">
         <v>5</v>
@@ -8576,7 +8740,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="14">
         <v>37</v>
@@ -8584,7 +8748,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5">
         <v>50</v>
@@ -8594,4 +8758,2828 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD73D14B-E9B7-47E2-8F43-CE9FC9485EB1}">
+  <dimension ref="A4:AD41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC16" sqref="AC16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" style="17" customWidth="1"/>
+    <col min="26" max="26" width="21" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z4" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA4" s="24"/>
+      <c r="AC4" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD4" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" s="22">
+        <f>SUM('Bundesliga Stats'!Goals_for)</f>
+        <v>99</v>
+      </c>
+      <c r="AC5" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD5" s="26">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.629</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="K6" s="17">
+        <v>14</v>
+      </c>
+      <c r="L6" s="20">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="M6">
+        <v>21</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>604</v>
+      </c>
+      <c r="R6" s="20">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="S6" s="3">
+        <v>361</v>
+      </c>
+      <c r="T6" s="20">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="U6" s="19">
+        <v>112.8</v>
+      </c>
+      <c r="V6" s="19">
+        <v>112.5</v>
+      </c>
+      <c r="W6" s="17">
+        <v>9</v>
+      </c>
+      <c r="X6" s="17">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA6" s="22">
+        <f>SUM('Bundesliga Stats'!Goals_Against)</f>
+        <v>44</v>
+      </c>
+      <c r="AC6" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD6" s="26">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Lose</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0.505</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="K7" s="17">
+        <v>14</v>
+      </c>
+      <c r="L7" s="20">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="M7">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>17</v>
+      </c>
+      <c r="P7">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>628</v>
+      </c>
+      <c r="R7" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="S7" s="3">
+        <v>247</v>
+      </c>
+      <c r="T7" s="20">
+        <v>0.623</v>
+      </c>
+      <c r="U7" s="19">
+        <v>113.6</v>
+      </c>
+      <c r="V7" s="19">
+        <v>118.7</v>
+      </c>
+      <c r="W7" s="17">
+        <v>5</v>
+      </c>
+      <c r="X7" s="17">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA7" s="22">
+        <f>COUNTIF('Bundesliga Stats'!Goals_Against,"=0")</f>
+        <v>9</v>
+      </c>
+      <c r="AC7" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD7" s="26">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="17">
+        <v>17</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="M8">
+        <v>22</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>568</v>
+      </c>
+      <c r="R8" s="20">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="S8">
+        <v>277</v>
+      </c>
+      <c r="T8" s="20">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="U8" s="19">
+        <v>113.1</v>
+      </c>
+      <c r="V8" s="19">
+        <v>118.4</v>
+      </c>
+      <c r="W8" s="17">
+        <v>6</v>
+      </c>
+      <c r="X8" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA8" s="23">
+        <f>MEDIAN('Bundesliga Stats'!Challenges)</f>
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="AC8" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD8" s="26">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="17">
+        <v>17</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="M9">
+        <v>17</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>665</v>
+      </c>
+      <c r="R9" s="20">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="S9">
+        <v>344</v>
+      </c>
+      <c r="T9" s="20">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="U9" s="19">
+        <v>113.5</v>
+      </c>
+      <c r="V9" s="19">
+        <v>120.3</v>
+      </c>
+      <c r="W9" s="17">
+        <v>10</v>
+      </c>
+      <c r="X9" s="17">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA9" s="23">
+        <f>MEDIAN(Tackles_Won)</f>
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="AC9" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD9" s="30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0.51</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="K10" s="17">
+        <v>13</v>
+      </c>
+      <c r="L10" s="20">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>580</v>
+      </c>
+      <c r="R10" s="20">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="S10">
+        <v>378</v>
+      </c>
+      <c r="T10" s="20">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="U10" s="19">
+        <v>113.6</v>
+      </c>
+      <c r="V10" s="19">
+        <v>114.5</v>
+      </c>
+      <c r="W10" s="17">
+        <v>10</v>
+      </c>
+      <c r="X10" s="17">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA10" s="23">
+        <f>MEDIAN(Aerial_Duels_Won)</f>
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0.627</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="17">
+        <v>15</v>
+      </c>
+      <c r="L11" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>642</v>
+      </c>
+      <c r="R11" s="20">
+        <v>0.86</v>
+      </c>
+      <c r="S11">
+        <v>370</v>
+      </c>
+      <c r="T11" s="20">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="U11" s="19">
+        <v>115</v>
+      </c>
+      <c r="V11" s="19">
+        <v>118</v>
+      </c>
+      <c r="W11" s="17">
+        <v>1</v>
+      </c>
+      <c r="X11" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="21"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0.49</v>
+      </c>
+      <c r="I12" s="20">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="J12" s="20">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="K12" s="17">
+        <v>13</v>
+      </c>
+      <c r="L12" s="20">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M12">
+        <v>14</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>15</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>494</v>
+      </c>
+      <c r="R12" s="20">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="S12">
+        <v>525</v>
+      </c>
+      <c r="T12" s="20">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="U12" s="19">
+        <v>121.8</v>
+      </c>
+      <c r="V12" s="19">
+        <v>121.5</v>
+      </c>
+      <c r="W12" s="17">
+        <v>3</v>
+      </c>
+      <c r="X12" s="17">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="21"/>
+      <c r="AC12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD12" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Draw</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0.496</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="K13" s="17">
+        <v>19</v>
+      </c>
+      <c r="L13" s="20">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="M13">
+        <v>16</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>662</v>
+      </c>
+      <c r="R13" s="20">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="S13">
+        <v>277</v>
+      </c>
+      <c r="T13" s="20">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="U13" s="19">
+        <v>111.3</v>
+      </c>
+      <c r="V13" s="19">
+        <v>116.3</v>
+      </c>
+      <c r="W13" s="17">
+        <v>7</v>
+      </c>
+      <c r="X13" s="17">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="20"/>
+      <c r="AC13" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD13" s="26">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K14" s="17">
+        <v>19</v>
+      </c>
+      <c r="L14" s="20">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="M14">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <v>15</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>564</v>
+      </c>
+      <c r="R14" s="20">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S14">
+        <v>413</v>
+      </c>
+      <c r="T14" s="20">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="U14" s="19">
+        <v>117</v>
+      </c>
+      <c r="V14" s="19">
+        <v>120</v>
+      </c>
+      <c r="W14" s="17">
+        <v>3</v>
+      </c>
+      <c r="X14" s="17">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD14" s="26">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Draw</v>
+      </c>
+      <c r="H15" s="20">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="I15" s="20">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="J15" s="20">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="K15" s="17">
+        <v>9</v>
+      </c>
+      <c r="L15" s="20">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="M15">
+        <v>9</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>636</v>
+      </c>
+      <c r="R15" s="20">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="S15">
+        <v>400</v>
+      </c>
+      <c r="T15" s="20">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="U15" s="19">
+        <v>112.2</v>
+      </c>
+      <c r="V15" s="19">
+        <v>116.7</v>
+      </c>
+      <c r="W15" s="17">
+        <v>10</v>
+      </c>
+      <c r="X15" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD15" s="26">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Draw</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="J16" s="20">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="K16" s="17">
+        <v>10</v>
+      </c>
+      <c r="L16" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>12</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <v>655</v>
+      </c>
+      <c r="R16" s="20">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="S16">
+        <v>317</v>
+      </c>
+      <c r="T16" s="20">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="U16" s="19">
+        <v>116.6</v>
+      </c>
+      <c r="V16" s="19">
+        <v>122</v>
+      </c>
+      <c r="W16" s="17">
+        <v>4</v>
+      </c>
+      <c r="X16" s="17">
+        <v>7</v>
+      </c>
+      <c r="AC16" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD16" s="26">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="J17" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="17">
+        <v>20</v>
+      </c>
+      <c r="L17" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>17</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>492</v>
+      </c>
+      <c r="R17" s="20">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="S17">
+        <v>333</v>
+      </c>
+      <c r="T17" s="20">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="U17" s="19">
+        <v>112.3</v>
+      </c>
+      <c r="V17" s="19">
+        <v>115.9</v>
+      </c>
+      <c r="W17" s="17">
+        <v>7</v>
+      </c>
+      <c r="X17" s="17">
+        <v>7</v>
+      </c>
+      <c r="AC17" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD17" s="30">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H18" s="20">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="K18" s="17">
+        <v>16</v>
+      </c>
+      <c r="L18" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="M18">
+        <v>14</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>496</v>
+      </c>
+      <c r="R18" s="20">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="S18">
+        <v>521</v>
+      </c>
+      <c r="T18" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="U18" s="19">
+        <v>121.9</v>
+      </c>
+      <c r="V18" s="19">
+        <v>122.6</v>
+      </c>
+      <c r="W18" s="17">
+        <v>5</v>
+      </c>
+      <c r="X18" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="I19" s="20">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="K19" s="17">
+        <v>18</v>
+      </c>
+      <c r="L19" s="20">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <v>12</v>
+      </c>
+      <c r="O19">
+        <v>12</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>725</v>
+      </c>
+      <c r="R19" s="20">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="S19">
+        <v>264</v>
+      </c>
+      <c r="T19" s="20">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="U19" s="19">
+        <v>113.9</v>
+      </c>
+      <c r="V19" s="19">
+        <v>119.5</v>
+      </c>
+      <c r="W19" s="17">
+        <v>10</v>
+      </c>
+      <c r="X19" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Lose</v>
+      </c>
+      <c r="H20" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="I20" s="20">
+        <v>0.498</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="K20" s="17">
+        <v>14</v>
+      </c>
+      <c r="L20" s="20">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="M20">
+        <v>16</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>8</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>705</v>
+      </c>
+      <c r="R20" s="20">
+        <v>0.88</v>
+      </c>
+      <c r="S20">
+        <v>358</v>
+      </c>
+      <c r="T20" s="20">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="U20" s="19">
+        <v>116.8</v>
+      </c>
+      <c r="V20" s="19">
+        <v>123.1</v>
+      </c>
+      <c r="W20" s="17">
+        <v>8</v>
+      </c>
+      <c r="X20" s="17">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="19"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H21" s="20">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="I21" s="20">
+        <v>0.628</v>
+      </c>
+      <c r="J21" s="20">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="K21" s="17">
+        <v>10</v>
+      </c>
+      <c r="L21" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="M21">
+        <v>25</v>
+      </c>
+      <c r="N21">
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <v>8</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>551</v>
+      </c>
+      <c r="R21" s="20">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="S21">
+        <v>376</v>
+      </c>
+      <c r="T21" s="20">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="U21" s="19">
+        <v>115.6</v>
+      </c>
+      <c r="V21" s="19">
+        <v>118.2</v>
+      </c>
+      <c r="W21" s="17">
+        <v>14</v>
+      </c>
+      <c r="X21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H22" s="20">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="I22" s="20">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="J22" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="17">
+        <v>21</v>
+      </c>
+      <c r="L22" s="20">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="M22">
+        <v>13</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>9</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>550</v>
+      </c>
+      <c r="R22" s="20">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="S22">
+        <v>310</v>
+      </c>
+      <c r="T22" s="20">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="U22" s="19">
+        <v>113.4</v>
+      </c>
+      <c r="V22" s="19">
+        <v>120.8</v>
+      </c>
+      <c r="W22" s="17">
+        <v>7</v>
+      </c>
+      <c r="X22" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H23" s="20">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="I23" s="20">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="J23" s="20">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="K23" s="17">
+        <v>22</v>
+      </c>
+      <c r="L23" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>31</v>
+      </c>
+      <c r="N23">
+        <v>13</v>
+      </c>
+      <c r="O23">
+        <v>13</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>532</v>
+      </c>
+      <c r="R23" s="20">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="S23">
+        <v>363</v>
+      </c>
+      <c r="T23" s="20">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="U23" s="19">
+        <v>111.4</v>
+      </c>
+      <c r="V23" s="19">
+        <v>111.2</v>
+      </c>
+      <c r="W23" s="17">
+        <v>7</v>
+      </c>
+      <c r="X23" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H24" s="20">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="I24" s="20">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="J24" s="20">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="K24" s="17">
+        <v>8</v>
+      </c>
+      <c r="L24" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="M24">
+        <v>15</v>
+      </c>
+      <c r="N24">
+        <v>9</v>
+      </c>
+      <c r="O24">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>605</v>
+      </c>
+      <c r="R24" s="20">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="S24">
+        <v>396</v>
+      </c>
+      <c r="T24" s="20">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="U24" s="19">
+        <v>115.1</v>
+      </c>
+      <c r="V24" s="19">
+        <v>116.1</v>
+      </c>
+      <c r="W24" s="17">
+        <v>10</v>
+      </c>
+      <c r="X24" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H25" s="20">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="I25" s="20">
+        <v>0.505</v>
+      </c>
+      <c r="J25" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="K25" s="17">
+        <v>10</v>
+      </c>
+      <c r="L25" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="M25">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>7</v>
+      </c>
+      <c r="Q25">
+        <v>533</v>
+      </c>
+      <c r="R25" s="20">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="S25">
+        <v>343</v>
+      </c>
+      <c r="T25" s="20">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="U25" s="19">
+        <v>115.5</v>
+      </c>
+      <c r="V25" s="19">
+        <v>118.8</v>
+      </c>
+      <c r="W25" s="17">
+        <v>11</v>
+      </c>
+      <c r="X25" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44242</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Draw</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="I26" s="20">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="J26" s="20">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="K26" s="17">
+        <v>16</v>
+      </c>
+      <c r="L26" s="20">
+        <v>0.875</v>
+      </c>
+      <c r="M26">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>12</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>619</v>
+      </c>
+      <c r="R26" s="20">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="S26">
+        <v>346</v>
+      </c>
+      <c r="T26" s="20">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="U26" s="19">
+        <v>114.7</v>
+      </c>
+      <c r="V26" s="19">
+        <v>125.4</v>
+      </c>
+      <c r="W26" s="17">
+        <v>5</v>
+      </c>
+      <c r="X26" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Lose</v>
+      </c>
+      <c r="H27" s="20">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="I27" s="20">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="J27" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="17">
+        <v>10</v>
+      </c>
+      <c r="L27" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="M27">
+        <v>22</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>12</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <v>542</v>
+      </c>
+      <c r="R27" s="20">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="S27">
+        <v>378</v>
+      </c>
+      <c r="T27" s="20">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="U27" s="19">
+        <v>118.9</v>
+      </c>
+      <c r="V27" s="19">
+        <v>123.2</v>
+      </c>
+      <c r="W27" s="17">
+        <v>10</v>
+      </c>
+      <c r="X27" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H28" s="20">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I28" s="20">
+        <v>0.495</v>
+      </c>
+      <c r="J28" s="20">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="K28" s="17">
+        <v>12</v>
+      </c>
+      <c r="L28" s="20">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="M28">
+        <v>14</v>
+      </c>
+      <c r="N28">
+        <v>7</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>634</v>
+      </c>
+      <c r="R28" s="20">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="S28">
+        <v>502</v>
+      </c>
+      <c r="T28" s="20">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="U28" s="19">
+        <v>114.4</v>
+      </c>
+      <c r="V28" s="19">
+        <v>117.7</v>
+      </c>
+      <c r="W28" s="17">
+        <v>4</v>
+      </c>
+      <c r="X28" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H29" s="20">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="I29" s="20">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="J29" s="20">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="K29" s="17">
+        <v>10</v>
+      </c>
+      <c r="L29" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <v>9</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>681</v>
+      </c>
+      <c r="R29" s="20">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="S29">
+        <v>360</v>
+      </c>
+      <c r="T29" s="20">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="U29" s="19">
+        <v>115.1</v>
+      </c>
+      <c r="V29" s="19">
+        <v>120.1</v>
+      </c>
+      <c r="W29" s="17">
+        <v>6</v>
+      </c>
+      <c r="X29" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44268</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H30" s="20">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="I30" s="20">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="J30" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="K30" s="17">
+        <v>15</v>
+      </c>
+      <c r="L30" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="M30">
+        <v>21</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>8</v>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="Q30">
+        <v>666</v>
+      </c>
+      <c r="R30" s="20">
+        <v>0.878</v>
+      </c>
+      <c r="S30">
+        <v>512</v>
+      </c>
+      <c r="T30" s="20">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="U30" s="19">
+        <v>117.2</v>
+      </c>
+      <c r="V30" s="19">
+        <v>118.2</v>
+      </c>
+      <c r="W30" s="17">
+        <v>8</v>
+      </c>
+      <c r="X30" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44275</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H31" s="20">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="I31" s="20">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="J31" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K31" s="17">
+        <v>16</v>
+      </c>
+      <c r="L31" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="M31">
+        <v>15</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>12</v>
+      </c>
+      <c r="P31">
+        <v>4</v>
+      </c>
+      <c r="Q31">
+        <v>450</v>
+      </c>
+      <c r="R31" s="20">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="S31">
+        <v>606</v>
+      </c>
+      <c r="T31" s="20">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="U31" s="19">
+        <v>104.7</v>
+      </c>
+      <c r="V31" s="19">
+        <v>110.3</v>
+      </c>
+      <c r="W31" s="17">
+        <v>1</v>
+      </c>
+      <c r="X31" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H32" s="20">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="I32" s="20">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="J32" s="20">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="K32" s="17">
+        <v>22</v>
+      </c>
+      <c r="L32" s="20">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="M32">
+        <v>9</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>14</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>475</v>
+      </c>
+      <c r="R32" s="20">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="S32">
+        <v>541</v>
+      </c>
+      <c r="T32" s="20">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="U32" s="19">
+        <v>118.2</v>
+      </c>
+      <c r="V32" s="19">
+        <v>120</v>
+      </c>
+      <c r="W32" s="17">
+        <v>4</v>
+      </c>
+      <c r="X32" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44296</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Draw</v>
+      </c>
+      <c r="H33" s="20">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="I33" s="20">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="J33" s="20">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="K33" s="17">
+        <v>17</v>
+      </c>
+      <c r="L33" s="20">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="M33">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>7</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>606</v>
+      </c>
+      <c r="R33" s="20">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="S33">
+        <v>413</v>
+      </c>
+      <c r="T33" s="20">
+        <v>0.751</v>
+      </c>
+      <c r="U33" s="19">
+        <v>116.6</v>
+      </c>
+      <c r="V33" s="19">
+        <v>121.9</v>
+      </c>
+      <c r="W33" s="17">
+        <v>8</v>
+      </c>
+      <c r="X33" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H34" s="20">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="I34" s="20">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J34" s="20">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="K34" s="17">
+        <v>24</v>
+      </c>
+      <c r="L34" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="M34">
+        <v>14</v>
+      </c>
+      <c r="N34">
+        <v>9</v>
+      </c>
+      <c r="O34">
+        <v>8</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>536</v>
+      </c>
+      <c r="R34" s="20">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="S34">
+        <v>480</v>
+      </c>
+      <c r="T34" s="20">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="U34" s="19">
+        <v>118.6</v>
+      </c>
+      <c r="V34" s="19">
+        <v>120.9</v>
+      </c>
+      <c r="W34" s="17">
+        <v>5</v>
+      </c>
+      <c r="X34" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44306</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H35" s="20">
+        <v>0.61</v>
+      </c>
+      <c r="I35" s="20">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="J35" s="20">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="K35" s="17">
+        <v>13</v>
+      </c>
+      <c r="L35" s="20">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="M35">
+        <v>24</v>
+      </c>
+      <c r="N35">
+        <v>8</v>
+      </c>
+      <c r="O35">
+        <v>7</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="Q35">
+        <v>638</v>
+      </c>
+      <c r="R35" s="20">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="S35">
+        <v>401</v>
+      </c>
+      <c r="T35" s="20">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="U35" s="19">
+        <v>113.4</v>
+      </c>
+      <c r="V35" s="19">
+        <v>117</v>
+      </c>
+      <c r="W35" s="17">
+        <v>7</v>
+      </c>
+      <c r="X35" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44310</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Lose</v>
+      </c>
+      <c r="H36" s="20">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="I36" s="20">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="J36" s="20">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="K36" s="17">
+        <v>10</v>
+      </c>
+      <c r="L36" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="M36">
+        <v>15</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>648</v>
+      </c>
+      <c r="R36" s="20">
+        <v>0.873</v>
+      </c>
+      <c r="S36">
+        <v>250</v>
+      </c>
+      <c r="T36" s="20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U36" s="19">
+        <v>114.1</v>
+      </c>
+      <c r="V36" s="19">
+        <v>121.3</v>
+      </c>
+      <c r="W36" s="17">
+        <v>3</v>
+      </c>
+      <c r="X36" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44324</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H37" s="20">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="I37" s="20">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="J37" s="20">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="K37" s="17">
+        <v>19</v>
+      </c>
+      <c r="L37" s="20">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="M37">
+        <v>22</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37">
+        <v>14</v>
+      </c>
+      <c r="P37">
+        <v>3</v>
+      </c>
+      <c r="Q37">
+        <v>632</v>
+      </c>
+      <c r="R37" s="20">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="S37">
+        <v>462</v>
+      </c>
+      <c r="T37" s="20">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="U37" s="19">
+        <v>109.4</v>
+      </c>
+      <c r="V37" s="19">
+        <v>111.2</v>
+      </c>
+      <c r="W37" s="17">
+        <v>5</v>
+      </c>
+      <c r="X37" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44331</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Draw</v>
+      </c>
+      <c r="H38" s="20">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="I38" s="20">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="J38" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K38" s="17">
+        <v>17</v>
+      </c>
+      <c r="L38" s="20">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="M38">
+        <v>17</v>
+      </c>
+      <c r="N38">
+        <v>6</v>
+      </c>
+      <c r="O38">
+        <v>14</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+      <c r="Q38">
+        <v>585</v>
+      </c>
+      <c r="R38" s="20">
+        <v>0.88</v>
+      </c>
+      <c r="S38">
+        <v>369</v>
+      </c>
+      <c r="T38" s="20">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="U38" s="19">
+        <v>114.3</v>
+      </c>
+      <c r="V38" s="19">
+        <v>118.3</v>
+      </c>
+      <c r="W38" s="17">
+        <v>8</v>
+      </c>
+      <c r="X38" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44338</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f>IF(Games3[[#This Row],[Goals for]]&gt;Games3[[#This Row],[Goals Against]],"Win",IF(Games3[[#This Row],[Goals for]]=Games3[[#This Row],[Goals Against]],"Draw",IF(Games3[[#This Row],[Goals for]]&lt;Games3[[#This Row],[Goals Against]],"Lose")))</f>
+        <v>Win</v>
+      </c>
+      <c r="H39" s="20">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="I39" s="20">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="J39" s="20">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="K39" s="17">
+        <v>10</v>
+      </c>
+      <c r="L39" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="M39">
+        <v>26</v>
+      </c>
+      <c r="N39">
+        <v>14</v>
+      </c>
+      <c r="O39">
+        <v>9</v>
+      </c>
+      <c r="P39">
+        <v>4</v>
+      </c>
+      <c r="Q39">
+        <v>620</v>
+      </c>
+      <c r="R39" s="20">
+        <v>0.876</v>
+      </c>
+      <c r="S39">
+        <v>256</v>
+      </c>
+      <c r="T39" s="20">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="U39" s="19">
+        <v>105.7</v>
+      </c>
+      <c r="V39" s="19">
+        <v>111.1</v>
+      </c>
+      <c r="W39" s="17">
+        <v>10</v>
+      </c>
+      <c r="X39" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L41" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="AA7">
+    <cfRule type="expression" priority="2">
+      <formula>$U$6&lt;$V$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7" xr:uid="{7C31196A-30F1-41C9-955A-9C5282764C22}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:P8 Q6:Q39 S6:S39" xr:uid="{8CE7B039-6E5A-4B66-A38A-37ADD078B384}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B39" xr:uid="{2F0C86F4-8CB3-465F-A0A6-AA05DDAA1634}">
+      <formula1>"Home, Away, Neutral"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C39" xr:uid="{FD8BFDD4-0BF2-4D4F-BF88-48670037B562}">
+      <formula1>"Bundesliga, DFB Pokal, Champions League, DFL Supercup, Uefa Super Cup, FIFA Club World Cup"</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{5AB1C2CF-99DC-486F-944D-EF26FB54FB44}">
+      <formula1>A6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>